--- a/kekis.xlsx
+++ b/kekis.xlsx
@@ -12,7 +12,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+  <si>
+    <t>УТВЕРЖДАЮ:</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>(сокращенное наименование образовательного учреждения)</t>
+  </si>
+  <si>
+    <t>_____________</t>
+  </si>
+  <si>
+    <t>___________________________</t>
+  </si>
+  <si>
+    <t>(подпись)</t>
+  </si>
+  <si>
+    <t>(расшифровка подписи)</t>
+  </si>
+  <si>
+    <t>14.05.2022</t>
+  </si>
+  <si>
+    <t>М.П.</t>
+  </si>
+  <si>
+    <t>Отчёт о фактическом предоставленном бесплатном питании</t>
+  </si>
+  <si>
+    <t>за период с 01.05.2022 по 31.05.2022</t>
+  </si>
+  <si>
+    <t>___________________________________________________________________________________________</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>№ счета</t>
+  </si>
+  <si>
+    <t>Класс</t>
+  </si>
+  <si>
+    <t>Ф.И. ребенка</t>
+  </si>
+  <si>
+    <t>Дни посещения</t>
+  </si>
+  <si>
+    <t>Остаток на начало месяца, руб.</t>
+  </si>
+  <si>
+    <t>Поступило в текущем месяце на питание, руб.</t>
+  </si>
+  <si>
+    <t>Израсходовано в текущем месяце на питание, руб.</t>
+  </si>
+  <si>
+    <t>Остаток на конец месяца, руб.</t>
+  </si>
+  <si>
+    <t>плановые</t>
+  </si>
+  <si>
+    <t>Фактические</t>
+  </si>
+  <si>
+    <t>Отчет составлен в двух экземплярах.</t>
+  </si>
+  <si>
+    <t>Подписи сторон:</t>
+  </si>
+  <si>
+    <t>Лицо, ответственное за организацию</t>
+  </si>
+  <si>
+    <t>_________________</t>
+  </si>
+  <si>
+    <t>(Ф.И.О.)</t>
+  </si>
+  <si>
+    <t>Заведующий производством</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,7 +157,9 @@
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
       <c r="I1"/>
       <c r="J1"/>
     </row>
@@ -81,7 +171,9 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2"/>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
@@ -94,7 +186,9 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3"/>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
       <c r="J3"/>
     </row>
     <row r="4">
@@ -105,8 +199,12 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
       <c r="J4"/>
     </row>
     <row r="5">
@@ -117,8 +215,12 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
       <c r="J5"/>
     </row>
     <row r="6">
@@ -141,7 +243,9 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="H7"/>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
@@ -153,7 +257,9 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8"/>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
@@ -170,7 +276,9 @@
       <c r="J9"/>
     </row>
     <row r="10">
-      <c r="A10"/>
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -182,7 +290,9 @@
       <c r="J10"/>
     </row>
     <row r="11">
-      <c r="A11"/>
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -194,7 +304,9 @@
       <c r="J11"/>
     </row>
     <row r="12">
-      <c r="A12"/>
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -206,7 +318,9 @@
       <c r="J12"/>
     </row>
     <row r="13">
-      <c r="A13"/>
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -230,24 +344,46 @@
       <c r="J14"/>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
       <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -759,7 +895,9 @@
     </row>
     <row r="59">
       <c r="A59"/>
-      <c r="B59"/>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
@@ -783,7 +921,9 @@
     </row>
     <row r="61">
       <c r="A61"/>
-      <c r="B61"/>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
@@ -807,13 +947,19 @@
     </row>
     <row r="63">
       <c r="A63"/>
-      <c r="B63"/>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63"/>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
       <c r="F63"/>
       <c r="G63"/>
-      <c r="H63"/>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
       <c r="I63"/>
       <c r="J63"/>
     </row>
@@ -822,22 +968,32 @@
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64"/>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
       <c r="F64"/>
       <c r="G64"/>
-      <c r="H64"/>
+      <c r="H64" t="s">
+        <v>27</v>
+      </c>
       <c r="I64"/>
       <c r="J64"/>
     </row>
     <row r="65">
       <c r="A65"/>
-      <c r="B65"/>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="E65"/>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
       <c r="F65"/>
       <c r="G65"/>
-      <c r="H65"/>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
       <c r="I65"/>
       <c r="J65"/>
     </row>
@@ -846,10 +1002,14 @@
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66"/>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
       <c r="F66"/>
       <c r="G66"/>
-      <c r="H66"/>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
       <c r="I66"/>
       <c r="J66"/>
     </row>
